--- a/5_Analysis/OUTPUT/Tables.xlsx
+++ b/5_Analysis/OUTPUT/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127E5CF-46D9-467C-8267-7FF8D98FC125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257840C-BD1A-40D7-BB41-95523521E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{82B24BEE-2C5E-4858-8FD9-A03E2642CD00}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{82B24BEE-2C5E-4858-8FD9-A03E2642CD00}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="122">
   <si>
     <t>Author &amp; Publication Year</t>
   </si>
@@ -1135,6 +1135,11 @@
   </si>
   <si>
     <t>Sui (2014)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Trials
+per Condition</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1312,7 +1317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,41 +1384,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1430,9 +1402,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1448,46 +1417,70 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E42E6A4-100F-4E97-ACB1-38351B5FF3E6}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1835,11 +1828,11 @@
     <col min="1" max="1" width="17.125" style="21" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="21" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="21" customWidth="1"/>
     <col min="6" max="6" width="5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="21" customWidth="1"/>
     <col min="9" max="9" width="3" style="21" customWidth="1"/>
     <col min="10" max="10" width="3.5" style="21" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="21" customWidth="1"/>
@@ -1853,40 +1846,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="24" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1899,8 +1892,8 @@
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1927,808 +1920,808 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="48">
         <v>33</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="48">
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="I4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="48">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="48">
         <v>46</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="48">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
+      <c r="I5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="48">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="48">
         <v>56</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="48">
         <v>48</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
+      <c r="I6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="48">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="48">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="I7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="48">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="48">
         <v>32</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="48">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="s">
+      <c r="I8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="48">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="48">
         <v>35</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="48">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
+      <c r="I9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="48">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="48">
         <v>30</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="48">
         <v>30</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
+      <c r="I10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="48">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="48">
         <v>13</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="48">
         <v>60</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
+      <c r="I11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="48">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="48">
         <v>28</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="48">
         <v>60</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
+      <c r="I12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="48">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="48">
         <v>27</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="48">
         <v>60</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
+      <c r="I13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="48">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="48">
         <v>20</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="48">
         <v>50</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
+      <c r="I14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="48">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="48">
         <v>24</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="48">
         <v>100</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
+      <c r="I15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="48">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="48">
         <v>25</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="48">
         <v>100</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
+      <c r="I16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="48">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="48">
         <v>105</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="48">
         <v>60</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1" t="s">
+      <c r="I17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="48">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="48">
         <v>18</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="48">
         <v>56</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1" t="s">
+      <c r="I18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="48">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="48">
         <v>18</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="48">
         <v>60</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="22">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="22">
         <v>298</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="22">
         <v>16</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
+      <c r="I20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2751,40 +2744,40 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="24" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="24"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2797,8 +2790,8 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2825,708 +2818,708 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="48">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="48">
         <v>24</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="48">
         <v>40</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1" t="s">
+      <c r="I26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="48">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="48">
         <v>20</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="48">
         <v>40</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1" t="s">
+      <c r="I27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="48">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="48">
         <v>21</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="48">
         <v>40</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="I28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="48">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="48">
         <v>24</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="48">
         <v>60</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1" t="s">
+      <c r="I29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="48">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="48">
         <v>18</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="48">
         <v>60</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
+      <c r="I30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="48">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="48">
         <v>22</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="48">
         <v>60</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
+      <c r="I31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="48">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="48">
         <v>20</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="48">
         <v>60</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
+      <c r="I32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="48">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="48">
         <v>40</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="48">
         <v>60</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
+      <c r="I33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="48">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="48">
         <v>144</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="48">
         <v>20</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="I34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="48">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="48">
         <v>109</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="48">
         <v>60</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1" t="s">
+      <c r="I35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="48">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="48">
         <v>30</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="48">
         <v>60</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
+      <c r="I36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="48">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="48">
         <v>48</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="48">
         <v>60</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
+      <c r="I37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="48">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="48">
         <v>18</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="48">
         <v>60</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1" t="s">
+      <c r="I38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="48">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="48">
         <v>18</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="48">
         <v>60</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="1">
+      <c r="I39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="22">
         <v>3</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="22">
         <v>18</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="22">
         <v>60</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
+      <c r="I40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3568,40 +3561,40 @@
     </row>
     <row r="43" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="24" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="24" t="s">
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="24"/>
+      <c r="P44" s="36"/>
     </row>
     <row r="45" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="7" t="s">
         <v>5</v>
       </c>
@@ -3614,8 +3607,8 @@
       <c r="F45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="4" t="s">
         <v>9</v>
       </c>
@@ -3642,505 +3635,483 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="48">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="48">
         <v>341</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="48">
         <v>36</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1" t="s">
+      <c r="I46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="48">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="48">
         <v>20</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="48">
         <v>160</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1" t="s">
+      <c r="I47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="48">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="48">
         <v>18</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="48">
         <v>60</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1" t="s">
+      <c r="I48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="48">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="48">
         <v>36</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="48">
         <v>60</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
+      <c r="I49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="48">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="48">
         <v>31</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="48">
         <v>12</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1" t="s">
+      <c r="I50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="66.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="48">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="48">
         <v>15</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="48">
         <v>40</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
+      <c r="I51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="48">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="48">
         <v>32</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="48">
         <v>40</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
+      <c r="I52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="48">
         <v>53</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="48">
         <v>20</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
+      <c r="I53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="48">
         <v>49</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="48">
         <v>20</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="I54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N54" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="22">
         <v>1</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="22">
         <v>30</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="22">
         <v>60</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1" t="s">
+      <c r="I55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:N44"/>
@@ -4150,6 +4121,28 @@
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4247,7 +4240,7 @@
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -4261,7 +4254,7 @@
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
@@ -4288,49 +4281,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -4341,7 +4334,7 @@
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="41" t="str">
+      <c r="C5" s="29" t="str">
         <f>J5 &amp; " [" &amp; L5 &amp; ", " &amp; M5 &amp; "] "</f>
         <v xml:space="preserve">0.6 [0.44, 0.76] </v>
       </c>
@@ -4349,11 +4342,11 @@
         <f>N5</f>
         <v>33</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="30">
         <f>O5</f>
         <v>350.4</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="30" t="str">
         <f>P5</f>
         <v>&lt;.001</v>
       </c>
@@ -4361,41 +4354,41 @@
         <f>Q5</f>
         <v>0.92969999999999997</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="23">
         <v>0.6</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="23">
         <v>0.08</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="23">
         <v>0.44</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="23">
         <v>0.76</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="24">
         <v>33</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="25">
         <v>350.4</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="26">
         <v>0.92969999999999997</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="29" t="str">
         <f>J6 &amp; " [" &amp; L6 &amp; ", " &amp; M6 &amp; "] "</f>
         <v xml:space="preserve">0.71 [0.46, 0.97] </v>
       </c>
@@ -4403,11 +4396,11 @@
         <f t="shared" ref="D6:D17" si="0">N6</f>
         <v>33</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="30">
         <f t="shared" ref="E6:E17" si="1">O6</f>
         <v>438.86</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="30" t="str">
         <f t="shared" ref="F6:F17" si="2">P6</f>
         <v>&lt;.001</v>
       </c>
@@ -4415,53 +4408,53 @@
         <f t="shared" ref="G6:G17" si="3">Q6</f>
         <v>0.96120000000000005</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="23">
         <v>0.71</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="23">
         <v>0.13</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="23">
         <v>0.46</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="23">
         <v>0.97</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="24">
         <v>33</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="25">
         <v>438.86</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="26">
         <v>0.96120000000000005</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="41" t="str">
-        <f t="shared" ref="C6:C17" si="4">ROUND(J7,2) &amp; " [" &amp; L7 &amp; ", " &amp; M7 &amp; "] "</f>
+      <c r="C7" s="29" t="str">
+        <f t="shared" ref="C7:C17" si="4">ROUND(J7,2) &amp; " [" &amp; L7 &amp; ", " &amp; M7 &amp; "] "</f>
         <v xml:space="preserve">0.47 [0.33, 0.61] </v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="30">
         <f t="shared" si="1"/>
         <v>290.77999999999997</v>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4469,41 +4462,41 @@
         <f t="shared" si="3"/>
         <v>0.91210000000000002</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="23">
         <v>0.47</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="23">
         <v>0.33</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="23">
         <v>0.61</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="24">
         <v>33</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="25">
         <v>290.77999999999997</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="26">
         <v>0.91210000000000002</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.91 [0.63, 1.18] </v>
       </c>
@@ -4511,11 +4504,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="30">
         <f t="shared" si="1"/>
         <v>533.29999999999995</v>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4523,41 +4516,41 @@
         <f t="shared" si="3"/>
         <v>0.96560000000000001</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="23">
         <v>0.91</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="23">
         <v>0.63</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="23">
         <v>1.18</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="24">
         <v>33</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="25">
         <v>533.29999999999995</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="26">
         <v>0.96560000000000001</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="41" t="str">
+      <c r="C9" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.5 [0.37, 0.63] </v>
       </c>
@@ -4565,11 +4558,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="30">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4577,41 +4570,41 @@
         <f t="shared" si="3"/>
         <v>0.90569999999999995</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="23">
         <v>0.5</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="23">
         <v>0.37</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="23">
         <v>0.63</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="24">
         <v>33</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="25">
         <v>316</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="26">
         <v>0.90569999999999995</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">-0.07 [-0.21, 0.06] </v>
       </c>
@@ -4619,11 +4612,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>356.06</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4631,56 +4624,56 @@
         <f t="shared" si="3"/>
         <v>0.92390000000000005</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="23">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="23">
         <v>-0.21</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="23">
         <v>0.06</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="24">
         <v>33</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="25">
         <v>356.06</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="P10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="26">
         <v>0.92390000000000005</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="41"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="12"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.92 [0.71, 1.13] </v>
       </c>
@@ -4688,11 +4681,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>375.48994571074201</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4700,41 +4693,41 @@
         <f t="shared" si="3"/>
         <v>0.93320000000000003</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="23">
         <v>0.92</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="23">
         <v>0.11</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="23">
         <v>0.71</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="23">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="24">
         <v>31</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="25">
         <v>375.48994571074201</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="26">
         <v>0.93320000000000003</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="41" t="str">
+      <c r="C13" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">1.41 [0.97, 1.86] </v>
       </c>
@@ -4742,11 +4735,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>634.67536434468002</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4754,41 +4747,41 @@
         <f t="shared" si="3"/>
         <v>0.97870000000000001</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="23">
         <v>1.41</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="23">
         <v>0.23</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="23">
         <v>0.97</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="23">
         <v>1.86</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="24">
         <v>31</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="25">
         <v>634.67536434468002</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="26">
         <v>0.97870000000000001</v>
       </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="41" t="str">
+      <c r="C14" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.65 [0.46, 0.83] </v>
       </c>
@@ -4796,11 +4789,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>373.01414710349098</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4808,41 +4801,41 @@
         <f t="shared" si="3"/>
         <v>0.93710000000000004</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="23">
         <v>0.65</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="23">
         <v>0.1</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="23">
         <v>0.46</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="23">
         <v>0.83</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="24">
         <v>31</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="25">
         <v>373.01414710349098</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="26">
         <v>0.93710000000000004</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">1.65 [1.17, 2.13] </v>
       </c>
@@ -4850,11 +4843,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>680.19905295440003</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4862,41 +4855,41 @@
         <f t="shared" si="3"/>
         <v>0.98080000000000001</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="23">
         <v>1.65</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="23">
         <v>0.24</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="23">
         <v>1.17</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="23">
         <v>2.13</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="24">
         <v>31</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="25">
         <v>680.19905295440003</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="26">
         <v>0.98080000000000001</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="29" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.73 [0.54, 0.92] </v>
       </c>
@@ -4904,11 +4897,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>378.22612099697801</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4916,41 +4909,41 @@
         <f t="shared" si="3"/>
         <v>0.94040000000000001</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="23">
         <v>0.73</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="23">
         <v>0.1</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="23">
         <v>0.54</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="23">
         <v>0.92</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="24">
         <v>31</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="25">
         <v>378.22612099697801</v>
       </c>
-      <c r="P16" s="36" t="s">
+      <c r="P16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="26">
         <v>0.94040000000000001</v>
       </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="43" t="str">
+      <c r="C17" s="31" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0.06 [-0.13, 0.26] </v>
       </c>
@@ -4958,11 +4951,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="32">
         <f t="shared" si="1"/>
         <v>482.76</v>
       </c>
-      <c r="F17" s="44" t="str">
+      <c r="F17" s="32" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.001</v>
       </c>
@@ -4970,34 +4963,34 @@
         <f t="shared" si="3"/>
         <v>0.95820000000000005</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="23">
         <v>0.06</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="23">
         <v>0.1</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="23">
         <v>-0.13</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="23">
         <v>0.26</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="24">
         <v>31</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="25">
         <v>482.76</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="26">
         <v>0.95820000000000005</v>
       </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5018,7 +5011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB9C98-E9FD-4C71-A608-718AC99FD0C1}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -5033,69 +5026,69 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55" t="str">
+      <c r="C5" s="29" t="str">
         <f>I5 &amp; " [" &amp; K5 &amp; ", " &amp; L5 &amp; "] "</f>
         <v xml:space="preserve">1.76 [1.11, 2.41] </v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="30">
         <f>M5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="30">
         <f>N5</f>
         <v>1.27331275664622E-7</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="12">
         <f>O5</f>
         <v>0</v>
       </c>
@@ -5114,7 +5107,7 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="33">
         <v>1.27331275664622E-7</v>
       </c>
       <c r="O5">
@@ -5122,26 +5115,26 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="str">
+      <c r="C6" s="29" t="str">
         <f>I6 &amp; " [" &amp; K6 &amp; ", " &amp; L6 &amp; "] "</f>
         <v xml:space="preserve">2.08 [1.39, 2.77] </v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="56">
-        <f t="shared" ref="E5:E11" si="0">M6</f>
+      <c r="E6" s="30">
+        <f t="shared" ref="E6:E10" si="0">M6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="30">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="12">
         <f t="shared" ref="G6:G10" si="1">O6</f>
         <v>0</v>
       </c>
@@ -5160,7 +5153,7 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="33">
         <v>3.0417130812555302E-9</v>
       </c>
       <c r="O6">
@@ -5168,26 +5161,26 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="55" t="str">
+      <c r="C7" s="29" t="str">
         <f>ROUND(I7,2) &amp; " [" &amp; K7 &amp; ", " &amp; L7 &amp; "] "</f>
         <v xml:space="preserve">1.41 [0.79, 2.03] </v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="30">
         <f>O7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5206,7 +5199,7 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="33">
         <v>8.4681060691431699E-6</v>
       </c>
       <c r="O7">
@@ -5214,26 +5207,26 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="str">
+      <c r="C8" s="29" t="str">
         <f>ROUND(I8,2) &amp; " [" &amp; K8 &amp; ", " &amp; L8 &amp; "] "</f>
         <v xml:space="preserve">2.7 [1.93, 3.46] </v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="30">
         <f>O8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5252,7 +5245,7 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="33">
         <v>5.1863188976120998E-12</v>
       </c>
       <c r="O8">
@@ -5260,26 +5253,26 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="55" t="str">
+      <c r="C9" s="29" t="str">
         <f>ROUND(I9,2) &amp; " [" &amp; K9 &amp; ", " &amp; L9 &amp; "] "</f>
         <v xml:space="preserve">1.46 [0.83, 2.08] </v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="30">
         <f>O9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5298,7 +5291,7 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="33">
         <v>4.69822054103591E-6</v>
       </c>
       <c r="O9">
@@ -5306,26 +5299,26 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="55" t="str">
+      <c r="C10" s="29" t="str">
         <f>ROUND(I10,2) &amp; " [" &amp; K10 &amp; ", " &amp; L10 &amp; "] "</f>
         <v xml:space="preserve">0.08 [0.47, 0.64] </v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="30">
         <f>O10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5352,37 +5345,37 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55" t="str">
-        <f>ROUND(I12,2) &amp; " [" &amp; K12 &amp; ", " &amp; L12 &amp; "] "</f>
+      <c r="C12" s="29" t="str">
+        <f t="shared" ref="C12:C17" si="2">ROUND(I12,2) &amp; " [" &amp; K12 &amp; ", " &amp; L12 &amp; "] "</f>
         <v xml:space="preserve">0.61 [0.35, 0.86] </v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="30">
         <f>M12</f>
         <v>8.7907230740364994</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="30">
         <f>N12</f>
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="12">
         <f>O12</f>
         <v>0.71301025669805396</v>
       </c>
@@ -5401,7 +5394,7 @@
       <c r="M12">
         <v>8.7907230740364994</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="33">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="O12">
@@ -5409,27 +5402,27 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="55" t="str">
-        <f>ROUND(I13,2) &amp; " [" &amp; K13 &amp; ", " &amp; L13 &amp; "] "</f>
+      <c r="C13" s="29" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">1.53 [0.23, 2.83] </v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="56">
-        <f t="shared" ref="E13:E17" si="2">M13</f>
+      <c r="E13" s="30">
+        <f t="shared" ref="E13:E17" si="3">M13</f>
         <v>65.496244238197605</v>
       </c>
-      <c r="F13" s="56">
-        <f t="shared" ref="F13:F17" si="3">N13</f>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13:F17" si="4">N13</f>
         <v>1E-4</v>
       </c>
-      <c r="G13" s="57">
-        <f t="shared" ref="G13:G17" si="4">O13</f>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13:G17" si="5">O13</f>
         <v>0.96442554061225905</v>
       </c>
       <c r="I13">
@@ -5455,27 +5448,27 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="55" t="str">
-        <f>ROUND(I14,2) &amp; " [" &amp; K14 &amp; ", " &amp; L14 &amp; "] "</f>
+      <c r="C14" s="29" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0.67 [0.27, 1.08] </v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="56">
-        <f t="shared" si="2"/>
+      <c r="E14" s="30">
+        <f t="shared" si="3"/>
         <v>20.2432194651673</v>
       </c>
-      <c r="F14" s="56">
-        <f t="shared" si="3"/>
+      <c r="F14" s="30">
+        <f t="shared" si="4"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G14" s="57">
-        <f t="shared" si="4"/>
+      <c r="G14" s="12">
+        <f t="shared" si="5"/>
         <v>0.88695270478745603</v>
       </c>
       <c r="I14">
@@ -5501,27 +5494,27 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="55" t="str">
-        <f>ROUND(I15,2) &amp; " [" &amp; K15 &amp; ", " &amp; L15 &amp; "] "</f>
+      <c r="C15" s="29" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">1.49 [0.32, 2.65] </v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="11">
         <v>4</v>
       </c>
-      <c r="E15" s="56">
-        <f t="shared" si="2"/>
+      <c r="E15" s="30">
+        <f t="shared" si="3"/>
         <v>52.111900142541998</v>
       </c>
-      <c r="F15" s="56">
-        <f t="shared" si="3"/>
+      <c r="F15" s="30">
+        <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="G15" s="57">
-        <f t="shared" si="4"/>
+      <c r="G15" s="12">
+        <f t="shared" si="5"/>
         <v>0.94760143389408891</v>
       </c>
       <c r="I15">
@@ -5547,27 +5540,27 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="55" t="str">
-        <f>ROUND(I16,2) &amp; " [" &amp; K16 &amp; ", " &amp; L16 &amp; "] "</f>
+      <c r="C16" s="29" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0.63 [0.33, 0.94] </v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E16" s="56">
-        <f t="shared" si="2"/>
+      <c r="E16" s="30">
+        <f t="shared" si="3"/>
         <v>15.6604970385367</v>
       </c>
-      <c r="F16" s="56">
-        <f t="shared" si="3"/>
+      <c r="F16" s="30">
+        <f t="shared" si="4"/>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G16" s="57">
-        <f t="shared" si="4"/>
+      <c r="G16" s="12">
+        <f t="shared" si="5"/>
         <v>0.82983415948495609</v>
       </c>
       <c r="I16">
@@ -5585,7 +5578,7 @@
       <c r="M16">
         <v>15.6604970385367</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="33">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="O16">
@@ -5597,23 +5590,23 @@
       <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="43" t="str">
-        <f>ROUND(I17,2) &amp; " [" &amp; K17 &amp; ", " &amp; L17 &amp; "] "</f>
+      <c r="C17" s="31" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0.13 [0.23, 0.02] </v>
       </c>
       <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="44">
-        <f t="shared" si="2"/>
+      <c r="E17" s="32">
+        <f t="shared" si="3"/>
         <v>5.4968078874078898</v>
       </c>
-      <c r="F17" s="44">
-        <f t="shared" si="3"/>
+      <c r="F17" s="32">
+        <f t="shared" si="4"/>
         <v>0.13880000000000001</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7014671657379196E-5</v>
       </c>
       <c r="I17">
@@ -5640,13 +5633,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5_Analysis/OUTPUT/Tables.xlsx
+++ b/5_Analysis/OUTPUT/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257840C-BD1A-40D7-BB41-95523521E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616DE45-CF3A-4AD3-9EDD-8350FEB48837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{82B24BEE-2C5E-4858-8FD9-A03E2642CD00}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{82B24BEE-2C5E-4858-8FD9-A03E2642CD00}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="124">
   <si>
     <t>Author &amp; Publication Year</t>
   </si>
@@ -1140,6 +1140,14 @@
   <si>
     <t># of Trials
 per Condition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celebrity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonperson</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1819,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E42E6A4-100F-4E97-ACB1-38351B5FF3E6}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
@@ -4276,7 +4284,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B6" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5011,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB9C98-E9FD-4C71-A608-718AC99FD0C1}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5059,7 +5067,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="28"/>
@@ -5080,18 +5088,9 @@
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <f>N5</f>
-        <v>1.27331275664622E-7</v>
-      </c>
-      <c r="G5" s="12">
-        <f>O5</f>
-        <v>0</v>
-      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="12"/>
       <c r="I5">
         <v>1.76</v>
       </c>
@@ -5126,18 +5125,9 @@
       <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="30">
-        <f t="shared" ref="E6:E10" si="0">M6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <f>O6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" ref="G6:G10" si="1">O6</f>
-        <v>0</v>
-      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="12"/>
       <c r="I6">
         <v>2.08</v>
       </c>
@@ -5172,18 +5162,9 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="12"/>
       <c r="I7">
         <v>1.41</v>
       </c>
@@ -5218,18 +5199,9 @@
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <f>O8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="12"/>
       <c r="I8">
         <v>2.7</v>
       </c>
@@ -5264,18 +5236,9 @@
       <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <f>O9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="12"/>
       <c r="I9">
         <v>1.46</v>
       </c>
@@ -5310,18 +5273,9 @@
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <f>O10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="12"/>
       <c r="I10">
         <v>0.08</v>
       </c>
@@ -5346,7 +5300,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="29"/>
@@ -5361,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="29" t="str">
-        <f t="shared" ref="C12:C17" si="2">ROUND(I12,2) &amp; " [" &amp; K12 &amp; ", " &amp; L12 &amp; "] "</f>
+        <f t="shared" ref="C12:C17" si="0">ROUND(I12,2) &amp; " [" &amp; K12 &amp; ", " &amp; L12 &amp; "] "</f>
         <v xml:space="preserve">0.61 [0.35, 0.86] </v>
       </c>
       <c r="D12" s="11">
@@ -5407,22 +5361,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1.53 [0.23, 2.83] </v>
       </c>
       <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="30">
-        <f t="shared" ref="E13:E17" si="3">M13</f>
+        <f t="shared" ref="E13:E17" si="1">M13</f>
         <v>65.496244238197605</v>
       </c>
       <c r="F13" s="30">
-        <f t="shared" ref="F13:F17" si="4">N13</f>
+        <f t="shared" ref="F13:F17" si="2">N13</f>
         <v>1E-4</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ref="G13:G17" si="5">O13</f>
+        <f t="shared" ref="G13:G17" si="3">O13</f>
         <v>0.96442554061225905</v>
       </c>
       <c r="I13">
@@ -5453,22 +5407,22 @@
         <v>33</v>
       </c>
       <c r="C14" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">0.67 [0.27, 1.08] </v>
       </c>
       <c r="D14" s="11">
         <v>4</v>
       </c>
       <c r="E14" s="30">
+        <f t="shared" si="1"/>
+        <v>20.2432194651673</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="3"/>
-        <v>20.2432194651673</v>
-      </c>
-      <c r="F14" s="30">
-        <f t="shared" si="4"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="5"/>
         <v>0.88695270478745603</v>
       </c>
       <c r="I14">
@@ -5499,22 +5453,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1.49 [0.32, 2.65] </v>
       </c>
       <c r="D15" s="11">
         <v>4</v>
       </c>
       <c r="E15" s="30">
+        <f t="shared" si="1"/>
+        <v>52.111900142541998</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="3"/>
-        <v>52.111900142541998</v>
-      </c>
-      <c r="F15" s="30">
-        <f t="shared" si="4"/>
-        <v>1E-4</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="5"/>
         <v>0.94760143389408891</v>
       </c>
       <c r="I15">
@@ -5545,22 +5499,22 @@
         <v>13</v>
       </c>
       <c r="C16" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">0.63 [0.33, 0.94] </v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
       </c>
       <c r="E16" s="30">
+        <f t="shared" si="1"/>
+        <v>15.6604970385367</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="3"/>
-        <v>15.6604970385367</v>
-      </c>
-      <c r="F16" s="30">
-        <f t="shared" si="4"/>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="5"/>
         <v>0.82983415948495609</v>
       </c>
       <c r="I16">
@@ -5591,22 +5545,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">0.13 [0.23, 0.02] </v>
       </c>
       <c r="D17" s="16">
         <v>4</v>
       </c>
       <c r="E17" s="32">
+        <f t="shared" si="1"/>
+        <v>5.4968078874078898</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="2"/>
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="3"/>
-        <v>5.4968078874078898</v>
-      </c>
-      <c r="F17" s="32">
-        <f t="shared" si="4"/>
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="5"/>
         <v>5.7014671657379196E-5</v>
       </c>
       <c r="I17">
